--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>UT.SAVE.1</t>
   </si>
@@ -262,7 +262,7 @@
     <t>{"msg": "Incorrect verification code provided"}</t>
   </si>
   <si>
-    <t>{"authToken": "9d4717d3-fe17-4fe2-aa23-5d997d7492d5", "emailAddress": "some.email@gmail.com", "time": "2024-04-12T11:01:05.415598"}</t>
+    <t>{"authToken": "9cb919af-8f61-4947-97da-68b2a80506e1", "emailAddress": "some.email@gmail.com", "time": "2024-04-12T11:46:08.278820"}</t>
   </si>
   <si>
     <t>{"msg": "Lyrics not provided"}</t>
@@ -302,6 +302,105 @@
   </si>
   <si>
     <t>File saved to 'test_outputs/UT.EXPORT.14.pptx'.</t>
+  </si>
+  <si>
+    <t>Valid save</t>
+  </si>
+  <si>
+    <t>User not authenticated</t>
+  </si>
+  <si>
+    <t>Invalid user authentication</t>
+  </si>
+  <si>
+    <t>No song id provided</t>
+  </si>
+  <si>
+    <t>No song lyrics provided</t>
+  </si>
+  <si>
+    <t>Song doesn't already exist</t>
+  </si>
+  <si>
+    <t>Song already exists</t>
+  </si>
+  <si>
+    <t>User has 0 songs</t>
+  </si>
+  <si>
+    <t>User has 1 song</t>
+  </si>
+  <si>
+    <t>User has 1+ songs</t>
+  </si>
+  <si>
+    <t>Song doesn't exist</t>
+  </si>
+  <si>
+    <t>Song doesn't belong to authenticated user</t>
+  </si>
+  <si>
+    <t>Valid song delete successful</t>
+  </si>
+  <si>
+    <t>No verification email address provided</t>
+  </si>
+  <si>
+    <t>Email address is invalid</t>
+  </si>
+  <si>
+    <t>Email address is valid</t>
+  </si>
+  <si>
+    <t>No verification code provided</t>
+  </si>
+  <si>
+    <t>Incorrect verification code provided</t>
+  </si>
+  <si>
+    <t>Valid verification</t>
+  </si>
+  <si>
+    <t>User Not Authenticated</t>
+  </si>
+  <si>
+    <t>Lyrics not provided</t>
+  </si>
+  <si>
+    <t>Settings not provided</t>
+  </si>
+  <si>
+    <t>No text color provided</t>
+  </si>
+  <si>
+    <t>No background color provided</t>
+  </si>
+  <si>
+    <t>No font size provided</t>
+  </si>
+  <si>
+    <t>No font family provided</t>
+  </si>
+  <si>
+    <t>No title slide boolean provided</t>
+  </si>
+  <si>
+    <t>Invalid text color provided</t>
+  </si>
+  <si>
+    <t>Invalid background color provided</t>
+  </si>
+  <si>
+    <t>Invalid font size provided</t>
+  </si>
+  <si>
+    <t>Title slide requested and title not provided</t>
+  </si>
+  <si>
+    <t>Title slide requested</t>
+  </si>
+  <si>
+    <t>Title slide not requested</t>
   </si>
 </sst>
 </file>
@@ -659,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -675,8 +774,11 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -689,8 +791,11 @@
       <c r="D2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -703,8 +808,11 @@
       <c r="D3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -717,8 +825,11 @@
       <c r="D4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -731,8 +842,11 @@
       <c r="D5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -745,8 +859,11 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -759,8 +876,11 @@
       <c r="D7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -773,8 +893,11 @@
       <c r="D8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -787,8 +910,11 @@
       <c r="D9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -801,8 +927,11 @@
       <c r="D10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -815,8 +944,11 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -829,8 +961,11 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -843,8 +978,11 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -857,8 +995,11 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -871,8 +1012,11 @@
       <c r="D15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -885,8 +1029,11 @@
       <c r="D16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -899,8 +1046,11 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -913,8 +1063,11 @@
       <c r="D18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -927,8 +1080,11 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -941,8 +1097,11 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -955,8 +1114,11 @@
       <c r="D21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -969,8 +1131,11 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -983,8 +1148,11 @@
       <c r="D23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -997,8 +1165,11 @@
       <c r="D24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1011,8 +1182,11 @@
       <c r="D25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1025,8 +1199,11 @@
       <c r="D26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1039,8 +1216,11 @@
       <c r="D27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1053,8 +1233,11 @@
       <c r="D28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1067,8 +1250,11 @@
       <c r="D29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1081,8 +1267,11 @@
       <c r="D30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1095,8 +1284,11 @@
       <c r="D31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1109,8 +1301,11 @@
       <c r="D32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1123,8 +1318,11 @@
       <c r="D33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1137,8 +1335,11 @@
       <c r="D34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1151,8 +1352,11 @@
       <c r="D35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1165,8 +1369,11 @@
       <c r="D36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1179,8 +1386,11 @@
       <c r="D37" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1192,6 +1402,9 @@
       </c>
       <c r="D38" t="s">
         <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
